--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABDE/20/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABDE/20/seed3/result_data_RandomForest.xlsx
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.894699999999996</v>
+        <v>-6.844399999999996</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -505,7 +505,7 @@
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-6.410099999999996</v>
+        <v>-6.226099999999999</v>
       </c>
       <c r="E4" t="n">
         <v>17.51</v>
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>4.490799999999998</v>
+        <v>4.798299999999998</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.31310000000001</v>
+        <v>-22.40670000000001</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.62219999999999</v>
+        <v>-21.79469999999999</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -610,7 +610,7 @@
         <v>-8.85</v>
       </c>
       <c r="E10" t="n">
-        <v>15.93619999999999</v>
+        <v>16.1819</v>
       </c>
     </row>
     <row r="11">
@@ -624,7 +624,7 @@
         <v>-10.8</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.030300000000004</v>
+        <v>-8.051799999999995</v>
       </c>
       <c r="E11" t="n">
         <v>17.04</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.50000000000001</v>
+        <v>-21.51410000000001</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>17.68870000000001</v>
+        <v>17.8129</v>
       </c>
     </row>
     <row r="13">
@@ -661,7 +661,7 @@
         <v>-8.359999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>16.48160000000001</v>
+        <v>16.25650000000001</v>
       </c>
     </row>
     <row r="14">
@@ -669,16 +669,16 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>4.292200000000001</v>
+        <v>4.3428</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.235599999999993</v>
+        <v>-8.461399999999996</v>
       </c>
       <c r="E14" t="n">
-        <v>16.3686</v>
+        <v>16.27049999999999</v>
       </c>
     </row>
     <row r="15">
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>4.244299999999995</v>
+        <v>4.359299999999996</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -734,16 +734,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.42450000000001</v>
+        <v>-21.61110000000001</v>
       </c>
       <c r="B18" t="n">
-        <v>4.410899999999998</v>
+        <v>6.403799999999997</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.181999999999992</v>
+        <v>-7.6695</v>
       </c>
       <c r="E18" t="n">
         <v>17.03</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.621299999999989</v>
+        <v>-8.732399999999991</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>8.981699999999996</v>
+        <v>9.0342</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -794,7 +794,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.252400000000002</v>
+        <v>-8.371899999999998</v>
       </c>
       <c r="E21" t="n">
         <v>16.94</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.5756</v>
+        <v>-21.50099999999999</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.777800000000003</v>
+        <v>-8.853000000000007</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.381000000000003</v>
+        <v>5.415500000000002</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -933,7 +933,7 @@
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>17.23860000000001</v>
+        <v>17.1939</v>
       </c>
     </row>
     <row r="30">
@@ -941,7 +941,7 @@
         <v>-21.31</v>
       </c>
       <c r="B30" t="n">
-        <v>4.932299999999999</v>
+        <v>4.697400000000001</v>
       </c>
       <c r="C30" t="n">
         <v>-10.71</v>
@@ -958,13 +958,13 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.565100000000005</v>
+        <v>5.380800000000005</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.202400000000001</v>
+        <v>-8.242699999999999</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -984,7 +984,7 @@
         <v>-8.69</v>
       </c>
       <c r="E32" t="n">
-        <v>16.38629999999999</v>
+        <v>16.33709999999999</v>
       </c>
     </row>
     <row r="33">
@@ -1026,7 +1026,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>8.596300000000003</v>
+        <v>8.828900000000003</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1035,7 +1035,7 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>16.3253</v>
+        <v>16.42929999999999</v>
       </c>
     </row>
     <row r="36">
@@ -1057,7 +1057,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-20.00979999999999</v>
+        <v>-20.2194</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -1083,7 +1083,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-8.372300000000003</v>
+        <v>-8.4062</v>
       </c>
       <c r="E38" t="n">
         <v>15.23</v>
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>8.720000000000004</v>
+        <v>8.408199999999995</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1151,7 +1151,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-9.286399999999988</v>
+        <v>-9.316399999999993</v>
       </c>
       <c r="E42" t="n">
         <v>16.31</v>
@@ -1171,7 +1171,7 @@
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.5341</v>
+        <v>17.5059</v>
       </c>
     </row>
     <row r="44">
@@ -1179,13 +1179,13 @@
         <v>-21.91</v>
       </c>
       <c r="B44" t="n">
-        <v>5.099400000000006</v>
+        <v>4.824900000000003</v>
       </c>
       <c r="C44" t="n">
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-8.114999999999997</v>
+        <v>-8.575999999999999</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1236,7 +1236,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.662499999999999</v>
+        <v>-7.815600000000001</v>
       </c>
       <c r="E47" t="n">
         <v>17.05</v>
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.61130000000001</v>
+        <v>17.57100000000001</v>
       </c>
     </row>
     <row r="49">
@@ -1273,7 +1273,7 @@
         <v>-9.210000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>15.7668</v>
+        <v>16.0447</v>
       </c>
     </row>
     <row r="50">
@@ -1281,7 +1281,7 @@
         <v>-22.25</v>
       </c>
       <c r="B50" t="n">
-        <v>4.351300000000002</v>
+        <v>4.801299999999999</v>
       </c>
       <c r="C50" t="n">
         <v>-14.51</v>
@@ -1290,7 +1290,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.60579999999999</v>
+        <v>16.48169999999999</v>
       </c>
     </row>
     <row r="51">
@@ -1307,7 +1307,7 @@
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>17.34820000000001</v>
+        <v>17.2743</v>
       </c>
     </row>
     <row r="52">
@@ -1349,7 +1349,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.523499999999999</v>
+        <v>4.625699999999998</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-21.69589999999999</v>
+        <v>-21.8885</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1389,10 +1389,10 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-8.845499999999998</v>
+        <v>-8.895099999999999</v>
       </c>
       <c r="E56" t="n">
-        <v>16.32509999999998</v>
+        <v>16.2896</v>
       </c>
     </row>
     <row r="57">
@@ -1423,7 +1423,7 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-8.311499999999993</v>
+        <v>-8.23129999999999</v>
       </c>
       <c r="E58" t="n">
         <v>16.91</v>
@@ -1477,7 +1477,7 @@
         <v>-7.97</v>
       </c>
       <c r="E61" t="n">
-        <v>16.4327</v>
+        <v>16.38460000000001</v>
       </c>
     </row>
     <row r="62">
@@ -1542,7 +1542,7 @@
         <v>-11.86</v>
       </c>
       <c r="D65" t="n">
-        <v>-7.664599999999997</v>
+        <v>-7.776800000000001</v>
       </c>
       <c r="E65" t="n">
         <v>17.18</v>
@@ -1584,10 +1584,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.44630000000002</v>
+        <v>-21.474</v>
       </c>
       <c r="B68" t="n">
-        <v>4.767099999999998</v>
+        <v>4.811699999999998</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
@@ -1613,7 +1613,7 @@
         <v>-6.88</v>
       </c>
       <c r="E69" t="n">
-        <v>17.56660000000003</v>
+        <v>17.51580000000002</v>
       </c>
     </row>
     <row r="70">
@@ -1647,7 +1647,7 @@
         <v>-7.44</v>
       </c>
       <c r="E71" t="n">
-        <v>16.75800000000001</v>
+        <v>16.88750000000001</v>
       </c>
     </row>
     <row r="72">
@@ -1678,7 +1678,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-7.364199999999999</v>
+        <v>-7.7103</v>
       </c>
       <c r="E73" t="n">
         <v>16.21</v>
@@ -1723,7 +1723,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>5.908199999999997</v>
+        <v>5.839899999999999</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.47139999999998</v>
+        <v>-20.69579999999999</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-20.12909999999998</v>
+        <v>-20.07189999999999</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.18049999999999</v>
+        <v>-20.32239999999999</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1783,12 +1783,12 @@
         <v>-4.8</v>
       </c>
       <c r="E79" t="n">
-        <v>18.19300000000001</v>
+        <v>18.38000000000001</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-20.14989999999998</v>
+        <v>-20.27879999999998</v>
       </c>
       <c r="B80" t="n">
         <v>11.21</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-22.04050000000001</v>
+        <v>-22.06320000000002</v>
       </c>
       <c r="B81" t="n">
         <v>3.85</v>
@@ -1817,12 +1817,12 @@
         <v>-8.390000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>16.4143</v>
+        <v>16.1204</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.6802</v>
+        <v>-21.6449</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-22.09040000000001</v>
+        <v>-22.06760000000002</v>
       </c>
       <c r="B84" t="n">
         <v>4.99</v>
@@ -1910,7 +1910,7 @@
         <v>-23.05</v>
       </c>
       <c r="B87" t="n">
-        <v>4.248499999999996</v>
+        <v>4.402399999999995</v>
       </c>
       <c r="C87" t="n">
         <v>-15.19</v>
@@ -1927,7 +1927,7 @@
         <v>-22.69</v>
       </c>
       <c r="B88" t="n">
-        <v>4.450699999999999</v>
+        <v>4.540999999999998</v>
       </c>
       <c r="C88" t="n">
         <v>-14.65</v>
@@ -1967,7 +1967,7 @@
         <v>-12.06</v>
       </c>
       <c r="D90" t="n">
-        <v>-8.077800000000002</v>
+        <v>-8.197600000000005</v>
       </c>
       <c r="E90" t="n">
         <v>16.68</v>
@@ -1995,16 +1995,16 @@
         <v>-21.6</v>
       </c>
       <c r="B92" t="n">
-        <v>5.2012</v>
+        <v>5.174000000000002</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-7.775099999999996</v>
+        <v>-7.124699999999994</v>
       </c>
       <c r="E92" t="n">
-        <v>16.32210000000001</v>
+        <v>17.1915</v>
       </c>
     </row>
     <row r="93">
@@ -2035,7 +2035,7 @@
         <v>-10.65</v>
       </c>
       <c r="D94" t="n">
-        <v>-6.701099999999999</v>
+        <v>-6.734</v>
       </c>
       <c r="E94" t="n">
         <v>17.92</v>
@@ -2052,7 +2052,7 @@
         <v>-10.47</v>
       </c>
       <c r="D95" t="n">
-        <v>-8.035600000000002</v>
+        <v>-7.787699999999998</v>
       </c>
       <c r="E95" t="n">
         <v>16.44</v>
@@ -2063,7 +2063,7 @@
         <v>-20.86</v>
       </c>
       <c r="B96" t="n">
-        <v>4.804000000000006</v>
+        <v>4.698400000000009</v>
       </c>
       <c r="C96" t="n">
         <v>-10.59</v>
@@ -2097,7 +2097,7 @@
         <v>-21.08</v>
       </c>
       <c r="B98" t="n">
-        <v>6.224899999999999</v>
+        <v>6.510699999999998</v>
       </c>
       <c r="C98" t="n">
         <v>-13.95</v>
@@ -2145,16 +2145,16 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-21.77699999999999</v>
+        <v>-21.7368</v>
       </c>
       <c r="B101" t="n">
-        <v>5.894000000000001</v>
+        <v>5.320700000000008</v>
       </c>
       <c r="C101" t="n">
         <v>-11.07</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.885199999999997</v>
+        <v>-7.914999999999996</v>
       </c>
       <c r="E101" t="n">
         <v>16.32</v>
@@ -2162,10 +2162,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-21.81300000000001</v>
+        <v>-22.06040000000001</v>
       </c>
       <c r="B102" t="n">
-        <v>5.526200000000004</v>
+        <v>4.776400000000002</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
